--- a/Parser/test.xlsx
+++ b/Parser/test.xlsx
@@ -491,7 +491,11 @@
           <t>Бекон Дымов, 150 г</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Дымов Бекон сырокопченый, нарезка, 200 г</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,8 +507,16 @@
           <t>239 ₽</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>229 ₽</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>290 ₽</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -519,7 +531,11 @@
           <t>Зелёный банан, 1 шт.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Бананы, 0,4 - 1 кг</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -531,8 +547,16 @@
           <t>39 ₽</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>149 ₽</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>/1кг</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -547,7 +571,11 @@
           <t>Бисквит проте­иновый FitnesShock брауни, 50 г</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FitnesShock Протеиновое печенье Брауни без сахара SHOCKS! Шоколад, 9 шт</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
@@ -559,8 +587,16 @@
           <t>139 ₽</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>548 ₽</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1 349 ₽</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
     </row>
@@ -575,7 +611,11 @@
           <t>Туалет­ная бумага Zewa Natural Comfort 3 слоя, 6 шт.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Туалетная бумага Zewa Плюс Сирень, 2 слоя, 8 рулонов</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -587,8 +627,16 @@
           <t>259 ₽</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>199 ₽</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>299 ₽</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
     </row>
@@ -603,7 +651,11 @@
           <t>Туалет­ная бумага Zewa Natural Comfort 3 слоя, 6 шт.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Туалетная бумага Zewa Natural comfort Без аромата, 3 слоя, 12 рулонов</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
@@ -615,8 +667,16 @@
           <t>259 ₽</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>289 ₽</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>460 ₽</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
     </row>
@@ -628,22 +688,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Вода минераль­ная газиро­ванная Borjomi, 500 мл</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Вода минераль­ная газиро­ванная Borjomi, 330 мл</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Вода газированная Славянская Жемчужина минеральная природная лечебно-столовая в стекле, 0,5 л</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
+          <t>53 ₽</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>89 ₽</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>149 ₽</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>58 ₽</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -656,23 +724,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Вода негази­рован­ная Святой источ­ник, 5 л</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Вода Сенеж­ская негази­рован­ная, 1 л</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Вода негазированная Святой Источник промо-пак, 6 шт х 1,5 л</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>135 ₽</t>
+          <t>35 ₽</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>149 ₽</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>45 ₽</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>276 ₽</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>360 ₽</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
     </row>
@@ -684,22 +764,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Гуляш из говяди­ны Из Лавки, 400 г</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Гуляш свиной Черки­зово, 500 г</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Гуляш из говядины, охлажденный, 400 г</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>239 ₽</t>
+          <t>275 ₽</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>399 ₽</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>299 ₽</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>359 ₽</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +803,11 @@
           <t>Драже M&amp;M's солёный арахис, 80 г</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Конфеты M&amp;M's драже с арахисом и молочным шоколадом для компании, 360 г</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -727,8 +819,16 @@
           <t>129 ₽</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>342 ₽</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>416 ₽</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
     </row>
@@ -743,7 +843,11 @@
           <t>Карто­фель белый ранний, 1 кг</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Картофель мытый белый, 2 кг</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
@@ -755,8 +859,16 @@
           <t>99 ₽</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>170 ₽</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>189 ₽</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
     </row>
@@ -771,7 +883,11 @@
           <t>Квас Очаков­ский, 1 л</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Квас Очаковский, 24 шт х 0,5 л</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
@@ -783,8 +899,16 @@
           <t>89 ₽</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1 215 ₽</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1 632 ₽</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
     </row>
@@ -796,23 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Чизкейк малина Из Лавки, 70 г</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Чизкейк Из Лавки вишня, 140 г</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Чизкейк New-York с малиной Cheeseberry, замороженный, 1000 г</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>109 ₽</t>
+          <t>161 ₽</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>139 ₽</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>269 ₽</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1 234 ₽</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1 579 ₽</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -827,7 +963,11 @@
           <t>Колба­са Доктор­ская Клинский, 190 г</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Колбаса вареная Докторская Рублевский б/о, 400 г</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -839,8 +979,16 @@
           <t>199 ₽</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>309 ₽</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>429 ₽</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
     </row>
@@ -855,7 +1003,11 @@
           <t>Perfect Fit курица в соусе для стери­лизован­ных кошек, 75 г</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Сухой корм PERFECT FIT™ для стерилизованных кошек, с курицей, 10кг</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -867,8 +1019,16 @@
           <t>39 ₽</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2 967 ₽</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5 275 ₽</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
     </row>
@@ -880,22 +1040,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Куриная отбив­ная с пюре по-домаш­нему, 250 г</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Грудка куриная с пюре Из Лавки, 340 г</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Котлета куриная с картофельным пюре Ozon fresh, 250 г</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>179 ₽</t>
+          <t>209 ₽</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>299 ₽</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>349 ₽</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>233 ₽</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -908,22 +1076,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Круас­сан с сыром Из Лавки, 85 г</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Круас­сан c малиной и завар­ным кремом, 130 г</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Утончённый круассан с малиной и шоколадом Home Napoleon, 50 г</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>119 ₽</t>
+          <t>141 ₽</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>199 ₽</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>235 ₽</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>129 ₽</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -939,7 +1115,11 @@
           <t>Манго жёлтое, 1 шт.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Манго желтое спелое Вьетнам, 1 шт</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
@@ -951,8 +1131,16 @@
           <t>179 ₽</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>186 ₽</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>239 ₽</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
     </row>
@@ -967,7 +1155,11 @@
           <t>Молоко 2,5% Домик в деревне, 950 г</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Молоко Простоквашино ультрапастеризованное, безлактозное, 1,5 %, 970 мл </t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
@@ -979,8 +1171,16 @@
           <t>109 ₽</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>130 ₽</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>138 ₽</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
     </row>
@@ -995,7 +1195,11 @@
           <t>Пломбир Сахар­ная трубоч­ка Чистая линия, 70 г</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Пломбир Лакомка в карамельной глазури Ozon fresh, 80 г</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
@@ -1007,8 +1211,16 @@
           <t>119 ₽</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>69 ₽</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>82 ₽</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
     </row>
@@ -1023,7 +1235,11 @@
           <t>Добрый Cola, 1 л</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Газированный напиток Добрый Cola без сахара, 1 л</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
@@ -1035,8 +1251,16 @@
           <t>125 ₽</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>98 ₽</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>118 ₽</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
     </row>
@@ -1051,7 +1275,11 @@
           <t>Шорли яблоч­ный Из Лавки, 500 мл</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sabroza Уксус Яблочный 5% 500мл. 1шт</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
@@ -1063,8 +1291,16 @@
           <t>139 ₽</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>578 ₽</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1 020 ₽</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
     </row>
@@ -1076,10 +1312,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Огурцы средние гладкие, 600 г</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Огурцы Корни­шон, 300 г</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Огурцы среднеплодные гладкие "Луховицкие Овощи", 1 кг</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
@@ -1091,8 +1331,16 @@
           <t>129 ₽</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>189 ₽</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>329 ₽</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
     </row>
@@ -1107,7 +1355,11 @@
           <t>Салат оливье с курицей Из Лавки, 200 г</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
@@ -1119,8 +1371,16 @@
           <t>259 ₽</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
     </row>
@@ -1132,22 +1392,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Салат оливье с колба­сой Из Лавки, 200 г</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Салат оливье с колба­сой Из Лавки, 350 г</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Салат Оливье с колбасой Ozon fresh, 450 г</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>137 ₽</t>
+          <t>215 ₽</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>229 ₽</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>359 ₽</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>356 ₽</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
